--- a/assets/sheet/TestformExame.xlsx
+++ b/assets/sheet/TestformExame.xlsx
@@ -182,25 +182,25 @@
     <t>حركات الأرجل</t>
   </si>
   <si>
-    <t xml:space="preserve">امتحان مختلف الاحزمة لدورة 07 يناير 2024  </t>
-  </si>
-  <si>
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t>اسم ونسب المرشح(ة)    :</t>
-  </si>
-  <si>
     <t xml:space="preserve">       </t>
   </si>
   <si>
-    <t>الحزام الحالي                 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحزام موضوع الامتحان   : </t>
-  </si>
-  <si>
-    <t>اسم النادي                   :</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>الحزام الحالي                    :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحزام موضوع الامتحان    : </t>
+  </si>
+  <si>
+    <t>اسم النادي                       :</t>
+  </si>
+  <si>
+    <t>اسم ونسب المرشح(ة)     :</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,6 +749,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -785,103 +869,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,15 +1196,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="133" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1207,125 +1213,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="58"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="58"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -1338,18 +1344,18 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1374,7 +1380,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="5">
@@ -1385,7 +1391,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="38" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="5">
@@ -1396,7 +1402,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5">
         <v>1</v>
       </c>
@@ -1405,7 +1411,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="34"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="5">
         <v>1</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -1423,7 +1429,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="34"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="5">
         <v>1</v>
       </c>
@@ -1432,7 +1438,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -1460,18 +1466,18 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -1496,7 +1502,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="5">
@@ -1507,7 +1513,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="5">
@@ -1518,7 +1524,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -1527,7 +1533,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="5">
         <v>1</v>
       </c>
@@ -1536,7 +1542,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="35"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="8">
         <v>1</v>
       </c>
@@ -1564,18 +1570,18 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1600,7 +1606,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="5">
@@ -1611,7 +1617,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="38" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="5">
@@ -1622,7 +1628,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="8">
         <v>3</v>
       </c>
@@ -1631,7 +1637,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="5">
         <v>5</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="5">
         <v>5</v>
       </c>
@@ -1654,14 +1660,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="34"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="5">
         <v>5</v>
       </c>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="34"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="5">
         <v>5</v>
       </c>
@@ -1690,7 +1696,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5">
@@ -1701,7 +1707,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="34"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="5">
         <v>5</v>
       </c>
@@ -1710,7 +1716,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="8">
         <v>4</v>
       </c>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="35"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="8">
         <v>5</v>
       </c>
@@ -1738,19 +1744,19 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="16" t="s">
         <v>41</v>
       </c>
@@ -1768,11 +1774,11 @@
     <row r="38" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1788,85 +1794,89 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A40:H46"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="A36:B36"/>
@@ -1882,16 +1892,12 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="H2:H7"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A40:H46"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="C3:G4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/assets/sheet/TestformExame.xlsx
+++ b/assets/sheet/TestformExame.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PS\projetStage\assets\sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projet\projetStage\assets\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05A01AE9-944E-4D1A-9DCD-D17F47A9132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="debutant" sheetId="2" r:id="rId1"/>
@@ -143,9 +144,6 @@
     <t>/06</t>
   </si>
   <si>
-    <t xml:space="preserve"> المعدل العام 100/ </t>
-  </si>
-  <si>
     <t>الليونة</t>
   </si>
   <si>
@@ -182,9 +180,6 @@
     <t>حركات الأرجل</t>
   </si>
   <si>
-    <t xml:space="preserve">امتحان مختلف الاحزمة لدورة 07 يناير 2024  </t>
-  </si>
-  <si>
     <t xml:space="preserve">         </t>
   </si>
   <si>
@@ -194,19 +189,25 @@
     <t xml:space="preserve">       </t>
   </si>
   <si>
-    <t>الحزام الحالي                 :</t>
-  </si>
-  <si>
     <t xml:space="preserve">الحزام موضوع الامتحان   : </t>
   </si>
   <si>
-    <t>اسم النادي                   :</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>الحزام الحالي                   :</t>
+  </si>
+  <si>
+    <t>اسم النادي                      :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  المعدل العام 100/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,10 +710,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,11 +733,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -770,7 +771,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,9 +804,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,7 +832,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,22 +841,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,21 +862,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +940,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,7 +977,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,7 +1012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1187,14 +1185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="133" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -1207,127 +1205,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="49" t="s">
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="50" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1339,14 +1337,14 @@
     </row>
     <row r="13" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
@@ -1370,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1392,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -1410,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -1428,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1446,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1460,11 +1458,11 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="36" t="s">
@@ -1636,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1738,21 +1736,21 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1767,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="21" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
@@ -1861,7 +1859,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A9:E9"/>
@@ -1882,6 +1879,7 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="A40:H46"/>
     <mergeCell ref="A22:A24"/>
